--- a/biology/Médecine/1583_en_santé_et_médecine/1583_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1583_en_santé_et_médecine/1583_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1583_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1583_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1583 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1583_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1583_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Août : disette à Marseille et rationnement[1].
-Famine en Italie, spécialement dans les États pontificaux[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Août : disette à Marseille et rationnement.
+Famine en Italie, spécialement dans les États pontificaux.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1583_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1583_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Philip Barrow publie The methode of phisicke[3], manuel plusieurs fois réédité et promis à une grande diffusion[4].
-Georg Bartisch publie son Ophthalmodouleia[5], qui est « le premier traité de chirurgie oculaire et présente l'ensemble des opérations qu'on pratique sur l'œil à la Renaissance[6] ».
-Andrea Cesalpino : De plantis[7].
-Charles de L'Écluse, Rariorum stirpium historia[8].
-Parution des Stirpium historiae pemptades sex[9], première édition latine du Cruydeboeck (1554), « imprimée chez Plantin à Anvers [et] qui constitue le texte définitif de Dodoens[10] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Philip Barrow publie The methode of phisicke, manuel plusieurs fois réédité et promis à une grande diffusion.
+Georg Bartisch publie son Ophthalmodouleia, qui est « le premier traité de chirurgie oculaire et présente l'ensemble des opérations qu'on pratique sur l'œil à la Renaissance ».
+Andrea Cesalpino : De plantis.
+Charles de L'Écluse, Rariorum stirpium historia.
+Parution des Stirpium historiae pemptades sex, première édition latine du Cruydeboeck (1554), « imprimée chez Plantin à Anvers [et] qui constitue le texte définitif de Dodoens ».</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1583_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1583_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1583 : Jean Rey (mort en 1645), médecin et chimiste français[11],[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1583 : Jean Rey (mort en 1645), médecin et chimiste français,.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1583_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1583_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>31 décembre : Thomas Erastus (né en 1524), médecin et théologien suisse[13],[14].
-Laurent Joubert (né en 1529), médecin et chirurgien français[15].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>31 décembre : Thomas Erastus (né en 1524), médecin et théologien suisse,.
+Laurent Joubert (né en 1529), médecin et chirurgien français.</t>
         </is>
       </c>
     </row>
